--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-700594.934600191</v>
+        <v>-703492.3628578279</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>18.21008304703292</v>
+        <v>13.88719820851067</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>10.78545761118284</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986074</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6361855654823955</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>18.21008304703292</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -738,31 +738,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18.21008304703292</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.21008304703292</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.21008304703292</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4983113685868062</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924264</v>
+        <v>15.54112977924161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4983113685839643</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>16.2611094610167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>16.26110946101672</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.85944218949135</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1139,22 +1139,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>81.30196747731281</v>
+      </c>
+      <c r="G8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.38870434448781</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.87244063411668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1254,31 +1254,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.396679373398285</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>108.5166779089043</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,31 +1294,31 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.625377488803587</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>29.76498982117926</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>325.0414143888689</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>101.3208278811444</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.70057996958622</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>72.4866236867922</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>97.19302170165112</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512083</v>
+        <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853827</v>
+        <v>12.76005920853822</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762149</v>
+        <v>124.8757279762148</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0319281257515</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20.1036410648822</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396103</v>
+        <v>82.30038209396098</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453116</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2530,7 +2530,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453008</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,13 +3038,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221626</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V34" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W34" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3278,7 +3278,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247478</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,13 +3512,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295169</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T40" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998808</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947558</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
-        <v>1.167705931948149e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.0474723022157</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W43" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3986,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
         <v>255.2416659947559</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545723</v>
@@ -4037,10 +4037,10 @@
         <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
         <v>354.6277363038396</v>
@@ -4135,7 +4135,7 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
         <v>117.0052706659984</v>
@@ -4144,16 +4144,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221572</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
@@ -4198,7 +4198,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998808</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="C2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="D2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="E2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="F2" t="n">
-        <v>19.85082992359387</v>
+        <v>38.88746488573679</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762634</v>
+        <v>24.85999194784722</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762634</v>
+        <v>24.85999194784722</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762634</v>
+        <v>24.85999194784722</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762634</v>
+        <v>24.85999194784722</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762634</v>
+        <v>13.96559032038981</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032523</v>
+        <v>19.48478886032744</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688782</v>
+        <v>37.51277107689208</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563493403</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="P2" t="n">
-        <v>45.83296563493403</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.19035395262858</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="R2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="S2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="T2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="U2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="V2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="W2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="X2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.79633067279734</v>
+        <v>45.83296563494026</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="C3" t="n">
-        <v>53.94296409154899</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="D3" t="n">
-        <v>53.94296409154899</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="E3" t="n">
-        <v>35.54894081171775</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="F3" t="n">
-        <v>17.15491753188651</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="G3" t="n">
-        <v>17.15491753188651</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="H3" t="n">
-        <v>17.15491753188651</v>
+        <v>35.54894081171896</v>
       </c>
       <c r="I3" t="n">
-        <v>17.15491753188651</v>
+        <v>17.15491753188564</v>
       </c>
       <c r="J3" t="n">
-        <v>17.15491753188651</v>
+        <v>17.15491753188564</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032523</v>
+        <v>19.48478886032744</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688782</v>
+        <v>37.51277107689208</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329345042</v>
+        <v>55.54075329345672</v>
       </c>
       <c r="O3" t="n">
-        <v>62.2948408954152</v>
+        <v>72.84033218813995</v>
       </c>
       <c r="P3" t="n">
-        <v>72.8403321881317</v>
+        <v>72.84033218813995</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.8403321881317</v>
+        <v>54.44630890830663</v>
       </c>
       <c r="R3" t="n">
-        <v>72.8403321881317</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="S3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="T3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="U3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="V3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="W3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="X3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
       <c r="Y3" t="n">
-        <v>72.33698737138022</v>
+        <v>36.05228562847331</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762634</v>
+        <v>1.456806643762799</v>
       </c>
     </row>
     <row r="5">
@@ -4586,25 +4586,25 @@
         <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>154.9161459087924</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>154.9161459087924</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9161459087924</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="T5" t="n">
-        <v>154.9161459087924</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="U5" t="n">
-        <v>154.9161459087924</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="V5" t="n">
-        <v>138.4907828168564</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="W5" t="n">
-        <v>138.4907828168564</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="X5" t="n">
         <v>88.19279592077088</v>
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.58405431632752</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="C6" t="n">
-        <v>48.28606742024204</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="D6" t="n">
-        <v>48.28606742024204</v>
+        <v>117.551221084159</v>
       </c>
       <c r="E6" t="n">
-        <v>48.28606742024204</v>
+        <v>117.551221084159</v>
       </c>
       <c r="F6" t="n">
-        <v>48.28606742024204</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="G6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="H6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="I6" t="n">
-        <v>48.28606742024204</v>
+        <v>50.63910264659903</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,10 +4650,10 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
         <v>121.1430747948175</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>148.882041212413</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>148.882041212413</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V6" t="n">
-        <v>148.882041212413</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W6" t="n">
-        <v>148.882041212413</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X6" t="n">
-        <v>98.58405431632752</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.58405431632752</v>
+        <v>167.8492079802444</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.9286798161015</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="C8" t="n">
-        <v>255.9286798161015</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9286798161015</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="E8" t="n">
-        <v>142.6835685788049</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296014</v>
+        <v>254.2417925668747</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2141240472905</v>
+        <v>140.996681329578</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>140.996681329578</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993892</v>
@@ -4811,7 +4811,7 @@
         <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
         <v>313.4124509320674</v>
@@ -4826,28 +4826,28 @@
         <v>432.6813068454352</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="V8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="W8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="X8" t="n">
-        <v>319.4361956081386</v>
+        <v>336.3649920389078</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.9286798161015</v>
+        <v>336.3649920389078</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.3476120565112</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C9" t="n">
-        <v>112.3476120565112</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="D9" t="n">
-        <v>112.3476120565112</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="E9" t="n">
-        <v>112.3476120565112</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="F9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
         <v>8.969012809993892</v>
@@ -4884,13 +4884,13 @@
         <v>8.969012809993892</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>65.44790611672062</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>176.439439640395</v>
       </c>
       <c r="N9" t="n">
         <v>287.4309731640694</v>
@@ -4902,31 +4902,31 @@
         <v>448.4506404996946</v>
       </c>
       <c r="Q9" t="n">
-        <v>448.4506404996946</v>
+        <v>439.100581130178</v>
       </c>
       <c r="R9" t="n">
-        <v>448.4506404996946</v>
+        <v>356.1757398283467</v>
       </c>
       <c r="S9" t="n">
-        <v>448.4506404996946</v>
+        <v>242.93062859105</v>
       </c>
       <c r="T9" t="n">
-        <v>448.4506404996946</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="U9" t="n">
-        <v>448.4506404996946</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="V9" t="n">
-        <v>335.205529262398</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="W9" t="n">
-        <v>335.205529262398</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="X9" t="n">
-        <v>225.5927232938078</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="Y9" t="n">
-        <v>112.3476120565112</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4942,28 +4942,28 @@
         <v>12.63101027343186</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="L10" t="n">
         <v>8.969012809993892</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1648.004869410822</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.004869410822</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450756</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450756</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.744041450756</v>
+        <v>2438.534757724421</v>
       </c>
       <c r="Y11" t="n">
-        <v>2034.604709474944</v>
+        <v>2048.395425748609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.9108438165264</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9746608886196</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D13" t="n">
-        <v>604.8580214762839</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E13" t="n">
-        <v>456.9449278938907</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760406</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1843.758608725274</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.758608725274</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>1554.341438688313</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.351887790296</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.559308646766</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1331.741292264946</v>
+        <v>2307.455433214417</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.741292264946</v>
+        <v>1938.492916274006</v>
       </c>
       <c r="D14" t="n">
-        <v>973.4755936581955</v>
+        <v>1580.227217667256</v>
       </c>
       <c r="E14" t="n">
-        <v>900.2567818533549</v>
+        <v>1194.438965069012</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637474</v>
+        <v>783.4530602794041</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169289</v>
+        <v>368.7127392273495</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773516</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.264472005598</v>
+        <v>666.2644720055985</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645698</v>
+        <v>1168.668140645699</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275284</v>
+        <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235389</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163071</v>
+        <v>2922.039463163074</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.6239741404</v>
+        <v>3363.623974140403</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049509</v>
+        <v>3647.062805049512</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584645</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.80552404519</v>
+        <v>3726.527800584649</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577571</v>
+        <v>3522.00394811703</v>
       </c>
       <c r="U14" t="n">
-        <v>3165.777765179644</v>
+        <v>3423.829178721423</v>
       </c>
       <c r="V14" t="n">
-        <v>2834.714877836073</v>
+        <v>3423.829178721423</v>
       </c>
       <c r="W14" t="n">
-        <v>2481.946222565959</v>
+        <v>3071.060523451308</v>
       </c>
       <c r="X14" t="n">
-        <v>2108.480464304879</v>
+        <v>2697.594765190228</v>
       </c>
       <c r="Y14" t="n">
-        <v>1718.341132329067</v>
+        <v>2307.455433214417</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718609</v>
+        <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807614</v>
+        <v>74.53055601169297</v>
       </c>
       <c r="K15" t="n">
-        <v>451.051499062828</v>
+        <v>170.1112445399392</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417079</v>
+        <v>574.6261033188193</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475663</v>
+        <v>1066.032731952775</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259247</v>
+        <v>1584.85407673636</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.19470656048</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.340332577117</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.214335272918</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.3898774335905</v>
+        <v>412.5077585140252</v>
       </c>
       <c r="C16" t="n">
-        <v>822.3898774335905</v>
+        <v>412.5077585140252</v>
       </c>
       <c r="D16" t="n">
-        <v>672.2732380212548</v>
+        <v>262.3911191016895</v>
       </c>
       <c r="E16" t="n">
-        <v>524.3601444388617</v>
+        <v>262.3911191016895</v>
       </c>
       <c r="F16" t="n">
-        <v>377.4701969409513</v>
+        <v>262.3911191016895</v>
       </c>
       <c r="G16" t="n">
-        <v>209.9163419973004</v>
+        <v>94.83726415803864</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169289</v>
+        <v>94.83726415803864</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169289</v>
+        <v>74.53055601169298</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525469</v>
+        <v>129.9765865525471</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923167</v>
+        <v>350.9282837923171</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553099</v>
+        <v>689.1968198553104</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479731</v>
+        <v>1056.242685479732</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776856</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135871</v>
+        <v>1990.231654135873</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389593</v>
+        <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>1996.937179304783</v>
+        <v>1996.937179304785</v>
       </c>
       <c r="S16" t="n">
-        <v>1996.937179304783</v>
+        <v>1807.847639528748</v>
       </c>
       <c r="T16" t="n">
-        <v>1775.807121968547</v>
+        <v>1586.717582192512</v>
       </c>
       <c r="U16" t="n">
-        <v>1486.712381367734</v>
+        <v>1297.622841591699</v>
       </c>
       <c r="V16" t="n">
-        <v>1232.027893161847</v>
+        <v>1042.938353385812</v>
       </c>
       <c r="W16" t="n">
-        <v>1232.027893161847</v>
+        <v>1042.938353385812</v>
       </c>
       <c r="X16" t="n">
-        <v>1004.03834226383</v>
+        <v>814.9488024877951</v>
       </c>
       <c r="Y16" t="n">
-        <v>1004.03834226383</v>
+        <v>594.156223344265</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5555,7 +5555,7 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5601,19 +5601,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2444.759048354586</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H19" t="n">
         <v>140.0574709897931</v>
@@ -5671,52 +5671,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443602</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902777</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354972</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5750,10 +5750,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,13 +5762,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L21" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="M21" t="n">
-        <v>1068.517024943739</v>
+        <v>875.4343898857001</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502113</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147773</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609059</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039814</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315397</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749456</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897942</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443615</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5987,25 +5987,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
@@ -6020,19 +6020,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>326.5159252754111</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L24" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,19 +6145,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O25" t="n">
         <v>2087.878830313935</v>
@@ -6166,7 +6166,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
@@ -6175,10 +6175,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6212,7 +6212,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796669</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6227,7 +6227,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,7 +6236,7 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233287</v>
@@ -6245,7 +6245,7 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R26" t="n">
         <v>4249.020448755811</v>
@@ -6260,16 +6260,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6312,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
         <v>617.6685920609048</v>
@@ -6388,7 +6388,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6415,13 +6415,13 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
         <v>1211.444469073043</v>
@@ -6440,10 +6440,10 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
         <v>1104.234664943806</v>
@@ -6452,58 +6452,58 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511592</v>
+        <v>84.98040897511683</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076833</v>
+        <v>337.4933016076842</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6534,10 +6534,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
         <v>216.5575109835859</v>
@@ -6546,22 +6546,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>688.8525027970471</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.770967407336</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.626315333739</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315386</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511623</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6649,16 +6649,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073042</v>
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6701,25 +6701,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400162</v>
@@ -6743,7 +6743,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>519.5985603334502</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040891</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354971</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6953,34 +6953,34 @@
         <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7020,22 +7020,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>850.6694118551806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042789</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
@@ -7126,7 +7126,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
         <v>1664.992195357083</v>
@@ -7135,7 +7135,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7260,19 +7260,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7312,70 +7312,70 @@
         <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609042</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042763</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443591</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902766</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040891</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354971</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162835</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511584</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511501</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076824</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951436</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7497,19 +7497,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315382</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597203</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352541</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966194</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7631,10 +7631,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G44" t="n">
         <v>342.8002736162838</v>
@@ -7673,25 +7673,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>118.5947109415084</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>421.6357602913728</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>875.4343898857002</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042766</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443594</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902769</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352542</v>
@@ -7840,16 +7840,16 @@
         <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -9574,7 +9574,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140413</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9814,7 +9814,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775176</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094433</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272103</v>
       </c>
       <c r="K40" t="n">
         <v>106.7437663446525</v>
@@ -11218,7 +11218,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446505</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>33.6362413227214</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>324.9180517995037</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>44.68968628960012</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>43.4341870331764</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.231572700461101</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23470,10 +23470,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>309.4437463854696</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389959</v>
+        <v>28.90056660389948</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>153.7758456322973</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.41175002686038</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434407</v>
+        <v>71.81329671946183</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>986480.38722742</v>
+        <v>986480.3872274199</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>221648.1143310986</v>
+        <v>221648.1143310985</v>
       </c>
       <c r="F2" t="n">
-        <v>233606.7318909309</v>
+        <v>233606.7318909311</v>
       </c>
       <c r="G2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="H2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="J2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="L2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="I2" t="n">
-        <v>266838.5752058923</v>
-      </c>
-      <c r="J2" t="n">
-        <v>266838.5752058922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>266838.5752058921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="P2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="P2" t="n">
-        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321843</v>
+        <v>345405.5970321879</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876333</v>
+        <v>50948.63134875997</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654189</v>
+        <v>93369.88484654298</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975345</v>
+        <v>143964.0818975337</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757882</v>
+        <v>4764.558968758422</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.94871490822</v>
+        <v>8128.948714907709</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194622</v>
+        <v>41060.19902194628</v>
       </c>
       <c r="M3" t="n">
-        <v>179249.6449383016</v>
+        <v>179249.6449383013</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613127</v>
+        <v>24549.15438613188</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875991</v>
+        <v>31434.59456875953</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>7.105427357601002e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318198</v>
+        <v>348982.9265318188</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
@@ -26433,31 +26433,31 @@
         <v>46449.25880112079</v>
       </c>
       <c r="H4" t="n">
-        <v>46449.25880112081</v>
+        <v>46449.25880112082</v>
       </c>
       <c r="I4" t="n">
         <v>46449.25880112081</v>
       </c>
       <c r="J4" t="n">
-        <v>46449.2588011208</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="K4" t="n">
+        <v>46449.25880112078</v>
+      </c>
+      <c r="L4" t="n">
         <v>46449.25880112084</v>
       </c>
-      <c r="L4" t="n">
-        <v>46449.2588011208</v>
-      </c>
       <c r="M4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112088</v>
       </c>
       <c r="N4" t="n">
-        <v>46449.25880112088</v>
+        <v>46449.25880112085</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.2588011208</v>
+        <v>46449.25880112077</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.25880112083</v>
+        <v>46449.25880112082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425688</v>
+        <v>42410.88882425707</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26476,19 +26476,19 @@
         <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390695</v>
+        <v>82183.39720390702</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
@@ -26497,13 +26497,13 @@
         <v>95106.43410215527</v>
       </c>
       <c r="L5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.43410215525</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-469960.8371823689</v>
+        <v>-469960.8371823717</v>
       </c>
       <c r="C6" t="n">
-        <v>-162673.2815807841</v>
+        <v>-162673.2815807806</v>
       </c>
       <c r="D6" t="n">
-        <v>-176497.8046113029</v>
+        <v>-176497.8046113028</v>
       </c>
       <c r="E6" t="n">
-        <v>-575698.9826604507</v>
+        <v>-576046.6015902568</v>
       </c>
       <c r="F6" t="n">
-        <v>42741.68347478154</v>
+        <v>42486.05391081933</v>
       </c>
       <c r="G6" t="n">
-        <v>-18681.19959491835</v>
+        <v>-18681.19959491756</v>
       </c>
       <c r="H6" t="n">
+        <v>125282.8823026159</v>
+      </c>
+      <c r="I6" t="n">
         <v>125282.8823026162</v>
       </c>
-      <c r="I6" t="n">
-        <v>125282.8823026163</v>
-      </c>
       <c r="J6" t="n">
-        <v>120518.3233338583</v>
+        <v>120518.3233338576</v>
       </c>
       <c r="K6" t="n">
-        <v>117153.9335877078</v>
+        <v>117153.9335877083</v>
       </c>
       <c r="L6" t="n">
-        <v>84222.68328066985</v>
+        <v>84222.68328066984</v>
       </c>
       <c r="M6" t="n">
-        <v>-53966.76263568567</v>
+        <v>-53966.76263568545</v>
       </c>
       <c r="N6" t="n">
-        <v>100733.7279164847</v>
+        <v>100733.7279164842</v>
       </c>
       <c r="O6" t="n">
-        <v>93848.28773385636</v>
+        <v>93848.28773385647</v>
       </c>
       <c r="P6" t="n">
-        <v>125282.882302616</v>
+        <v>125282.8823026161</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.115402522811</v>
+        <v>352.115402522814</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26744,7 +26744,7 @@
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1171.567643808273</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,10 +26796,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461612</v>
+        <v>931.6319501461621</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26820,13 +26820,13 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
+        <v>1062.255112188952</v>
+      </c>
+      <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
-      <c r="N4" t="n">
-        <v>1062.255112188952</v>
-      </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-9.237055564881302e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>-1.172395514004165e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.115402522811</v>
+        <v>352.115402522814</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475705</v>
+        <v>44.74454074475409</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,16 +26969,16 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497428</v>
+        <v>81.79094321497519</v>
       </c>
       <c r="G3" t="n">
-        <v>106.59222681185</v>
+        <v>106.5922268118493</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="C4" t="n">
-        <v>31.5849239800917</v>
+        <v>31.58492398008964</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,25 +27033,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009147</v>
+        <v>31.58492398008964</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779925</v>
+        <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773686</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438677</v>
+        <v>100.2304947438698</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="K4" t="n">
-        <v>31.5849239800917</v>
+        <v>31.58492398008964</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773694</v>
+        <v>719.2887952773691</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438681</v>
+        <v>100.2304947438694</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427916</v>
+        <v>130.6231620427907</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,22 +27391,22 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>395.6771151614778</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918004</v>
+        <v>324.9779101918002</v>
       </c>
       <c r="I2" t="n">
-        <v>155.90331045177</v>
+        <v>155.9033104517696</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107649</v>
+        <v>60.90377530107548</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996137</v>
+        <v>29.24248535877703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986261</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855245</v>
+        <v>27.67667403855074</v>
       </c>
       <c r="Q2" t="n">
-        <v>68.80718401073513</v>
+        <v>69.44336957621624</v>
       </c>
       <c r="R2" t="n">
-        <v>108.4565837973564</v>
+        <v>126.6666668443885</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365426</v>
+        <v>176.7634676365423</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493832</v>
+        <v>216.8993262493831</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27458,28 +27458,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>154.4984159412828</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>139.434997408368</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>126.859129346351</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9207450255981</v>
+        <v>104.4224336570112</v>
       </c>
       <c r="I3" t="n">
-        <v>73.44590915279181</v>
+        <v>55.23582610575662</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587544</v>
+        <v>55.28179755587483</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.3028431895697</v>
+        <v>25.0927601425339</v>
       </c>
       <c r="R3" t="n">
-        <v>98.65548851006852</v>
+        <v>80.44540546303315</v>
       </c>
       <c r="S3" t="n">
-        <v>157.1168528514416</v>
+        <v>157.6151642200254</v>
       </c>
       <c r="T3" t="n">
         <v>197.1119545918172</v>
@@ -27552,40 +27552,40 @@
         <v>167.3560171571881</v>
       </c>
       <c r="H4" t="n">
-        <v>156.5817812997788</v>
+        <v>156.5817812997787</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199557</v>
+        <v>136.3554298199555</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956167</v>
+        <v>82.10359380956129</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018254</v>
+        <v>55.24219515018193</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323744</v>
+        <v>40.48311410323664</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660787</v>
+        <v>39.39257270660703</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988105</v>
+        <v>30.51901051988023</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406136</v>
+        <v>48.70751749406061</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728737</v>
+        <v>60.93221199728673</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850138</v>
+        <v>98.33557584850094</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545822</v>
+        <v>148.743181854582</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839193</v>
+        <v>212.9509385839192</v>
       </c>
       <c r="T4" t="n">
         <v>225.2325691137615</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.01861771953256</v>
+        <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>99.10632418716015</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27673,13 +27673,13 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>311.4911490091182</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>319.9360936513444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,19 +27695,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>97.65005853751413</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>128.6212221673242</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188784</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
@@ -27716,7 +27716,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>2.329504874093416</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
@@ -27746,7 +27746,7 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9290208388017</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>269.8177099473381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>325.5740782643986</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>136.685125759028</v>
+        <v>24.57246563410433</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>165.4040387101212</v>
@@ -27910,7 +27910,7 @@
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>215.6395983452113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.3654980219369</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,19 +27935,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>32.95655226846023</v>
       </c>
       <c r="G9" t="n">
         <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
         <v>64.26286446312977</v>
@@ -27974,31 +27974,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.6609993460486</v>
+        <v>40.54833922112496</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>188.6402155916929</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>120.6879270245016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>97.2563072945732</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>93.57003565238071</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>144.9900955294088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28038,7 +28038,7 @@
         <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>3.613446413741165</v>
       </c>
       <c r="M10" t="n">
         <v>4.341129883412066</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221588</v>
       </c>
       <c r="H35" t="n">
         <v>31.61020235221394</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605694</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221403</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
-        <v>12.3803783660538</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221397</v>
+        <v>31.610202352214</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624365</v>
+        <v>1.415539306624377</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396678</v>
+        <v>14.4968919239669</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863587</v>
+        <v>54.57257911863633</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256098</v>
+        <v>120.1421292256108</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750192</v>
+        <v>180.0619080750207</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301246</v>
+        <v>223.3827191301265</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743057</v>
+        <v>248.5563162743078</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436238</v>
+        <v>247.6231466436259</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490061</v>
+        <v>238.5024483490081</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167171</v>
+        <v>203.5563217167188</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.862320298232</v>
+        <v>152.8623202982332</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974283</v>
+        <v>88.91887096974358</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970274</v>
+        <v>32.25660194970301</v>
       </c>
       <c r="T2" t="n">
-        <v>6.19652331474816</v>
+        <v>6.196523314748211</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299492</v>
+        <v>0.1132431445299501</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660464</v>
+        <v>0.7573802997660527</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898396</v>
+        <v>7.314699210898457</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720818</v>
+        <v>26.07647084720839</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079125</v>
+        <v>71.55582911079186</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951164</v>
+        <v>122.3003091951174</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269071</v>
+        <v>156.7644628269092</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690512</v>
+        <v>160.3441169690533</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303662</v>
+        <v>149.5517951303683</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4185551534998</v>
+        <v>160.0705665602861</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211146</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645182</v>
+        <v>96.67893089645263</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389542</v>
+        <v>47.02401545389581</v>
       </c>
       <c r="S3" t="n">
-        <v>14.0680068838123</v>
+        <v>14.06800688381242</v>
       </c>
       <c r="T3" t="n">
-        <v>3.05277410300437</v>
+        <v>3.052774103004396</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0498276513003978</v>
+        <v>0.04982765130039822</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706427</v>
+        <v>0.6349622012706481</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660809</v>
+        <v>5.645391207660857</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730261</v>
+        <v>19.09504510730277</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983444</v>
+        <v>44.89182762983481</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035284</v>
+        <v>73.77106302035345</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800084</v>
+        <v>94.40156217800164</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099719</v>
+        <v>99.53321124099803</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535214</v>
+        <v>97.16653394535297</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778143</v>
+        <v>89.74902095778218</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205186025</v>
+        <v>76.79579205186089</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094446</v>
+        <v>53.16942578094491</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258726</v>
+        <v>28.55020952258749</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305292</v>
+        <v>11.06565945305302</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314520018</v>
+        <v>2.713020314520041</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748964</v>
+        <v>0.03463430188748993</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31370,13 +31370,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
-        <v>181.1367191104579</v>
+        <v>153.0991627102423</v>
       </c>
       <c r="O6" t="n">
         <v>192.3912514715691</v>
@@ -31604,16 +31604,16 @@
         <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>195.603766958386</v>
       </c>
       <c r="M9" t="n">
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
         <v>243.6589731628788</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601094</v>
+        <v>4.709819673601096</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226721</v>
+        <v>48.23444073226724</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665063</v>
+        <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223011</v>
+        <v>399.7400575223014</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058355</v>
+        <v>599.1067243058359</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418051</v>
+        <v>743.2448681418056</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622086</v>
+        <v>827.003123762209</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098277</v>
+        <v>840.3848989098282</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304568</v>
+        <v>793.5516295304573</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384297</v>
+        <v>677.2779563384302</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775904</v>
+        <v>508.6075392775907</v>
       </c>
       <c r="R14" t="n">
-        <v>295.853210071845</v>
+        <v>295.8532100718451</v>
       </c>
       <c r="S14" t="n">
-        <v>107.325015812185</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.6172356211888</v>
+        <v>20.61723562118881</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880874</v>
+        <v>0.3767855738880876</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681945</v>
+        <v>2.519975686681947</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137563</v>
+        <v>24.33765992137565</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146173</v>
+        <v>86.76232079146178</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667359</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744263</v>
+        <v>234.3875890028905</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332883</v>
+        <v>547.1552472332885</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755086</v>
+        <v>638.5043658755089</v>
       </c>
       <c r="N15" t="n">
-        <v>655.403676511196</v>
+        <v>655.4036765111964</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062959</v>
+        <v>599.5663205062963</v>
       </c>
       <c r="P15" t="n">
-        <v>186.6467569260843</v>
+        <v>481.204830906836</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999621</v>
+        <v>321.6726858999622</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731124</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762295</v>
+        <v>46.80744312762297</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131889</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238123</v>
+        <v>0.1657878741238124</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244426</v>
+        <v>2.112662964244427</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482773</v>
+        <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291422</v>
+        <v>63.53353714291426</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720809</v>
+        <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913069</v>
+        <v>245.4530243913071</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023032</v>
+        <v>314.0953647023034</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587876</v>
+        <v>331.1695226587878</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102405</v>
+        <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824759</v>
+        <v>298.6153069824761</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118894</v>
+        <v>255.5169825118896</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150492</v>
+        <v>176.9067142150493</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320845</v>
+        <v>94.99300928320851</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869603</v>
+        <v>36.81795365869606</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408</v>
+        <v>9.026832665408005</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860597</v>
+        <v>0.1152361616860598</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,22 +32321,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.9718386705495</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H20" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I20" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L20" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R20" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>696.5971294879669</v>
+        <v>634.4703284277955</v>
       </c>
       <c r="N21" t="n">
-        <v>494.9858886872157</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32786,13 +32786,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8167079645558</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
         <v>696.5971294879669</v>
@@ -32801,13 +32801,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33032,22 +33032,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>529.6867378368194</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P27" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33266,13 +33266,13 @@
         <v>443.943509024727</v>
       </c>
       <c r="L30" t="n">
-        <v>309.5179580259316</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O30" t="n">
         <v>654.1164009578283</v>
@@ -33281,10 +33281,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33503,25 +33503,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5490354591197</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33740,25 +33740,25 @@
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>472.9693813169756</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33980,22 +33980,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>591.0665301174799</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O39" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>591.0665301174799</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>160.7914670367598</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34454,19 +34454,19 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927319403</v>
+        <v>8.404236927321392</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703292</v>
+        <v>18.21008304703499</v>
       </c>
       <c r="O3" t="n">
-        <v>6.82231070905533</v>
+        <v>17.47432211584165</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678434</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690899</v>
       </c>
       <c r="O6" t="n">
         <v>49.79500702712463</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>57.04938717851184</v>
       </c>
       <c r="M9" t="n">
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
         <v>101.0627287184343</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35574,19 +35574,19 @@
         <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956148</v>
+        <v>218.6941529956151</v>
       </c>
       <c r="K14" t="n">
-        <v>379.016873260855</v>
+        <v>379.0168732608553</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718179</v>
+        <v>507.4784531718183</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349359</v>
+        <v>596.6568905349363</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132369</v>
+        <v>610.9718353132373</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087701</v>
+        <v>563.4534181087705</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831602</v>
+        <v>446.0449605831606</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031409</v>
+        <v>286.3018494031412</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771283</v>
+        <v>80.267672257713</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000693</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000673</v>
+        <v>96.5461500285315</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534141</v>
+        <v>408.6008674534143</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534903</v>
+        <v>496.3703319534906</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278627</v>
+        <v>524.0619644278631</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618515</v>
+        <v>456.9700760618518</v>
       </c>
       <c r="P15" t="n">
-        <v>52.67234951175401</v>
+        <v>347.2304234925057</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139405</v>
+        <v>181.6909118139407</v>
       </c>
       <c r="R15" t="n">
-        <v>10.78003910914848</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540815</v>
+        <v>56.00609145540824</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654241</v>
+        <v>223.1835325654242</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626193</v>
+        <v>341.6853899626195</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206282</v>
+        <v>370.7533996206284</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894691</v>
+        <v>367.4272239894692</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965156</v>
+        <v>323.2004348965157</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767829</v>
+        <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335481</v>
+        <v>90.74467096335489</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>86.99006458452799</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P20" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>554.4630955659486</v>
+        <v>492.3362945057771</v>
       </c>
       <c r="N21" t="n">
-        <v>363.6441766038824</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>243.9752689901968</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,13 +36449,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641584</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>387.552703914801</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>306.102070050368</v>
       </c>
       <c r="L30" t="n">
-        <v>170.9635782460575</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O30" t="n">
         <v>511.5201565133839</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37151,25 +37151,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
-        <v>334.4150015371014</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895075</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>334.4150015371014</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.966552622204722e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116842</v>
@@ -37628,22 +37628,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>459.7248180341467</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O39" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193536</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7248180341467</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414958</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.95384037009314</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38102,19 +38102,19 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193539</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
@@ -38184,16 +38184,16 @@
         <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
